--- a/biology/Médecine/Paul_Brouardel/Paul_Brouardel.xlsx
+++ b/biology/Médecine/Paul_Brouardel/Paul_Brouardel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Camille Hippolyte Brouardel, né le 13 février 1837, place de l'Hôtel de Ville à Saint-Quentin dans l'Aisne et mort le 23 juillet 1906[1] à Paris, est un médecin français, spécialiste de médecine légale. Il a été doyen de la Faculté de médecine de Paris, membre de l'Académie de médecine et de l'Académie des sciences.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Camille Hippolyte Brouardel, né le 13 février 1837, place de l'Hôtel de Ville à Saint-Quentin dans l'Aisne et mort le 23 juillet 1906 à Paris, est un médecin français, spécialiste de médecine légale. Il a été doyen de la Faculté de médecine de Paris, membre de l'Académie de médecine et de l'Académie des sciences.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né de Pierre Alexandre Brouardel (professeur de philosophie) et de Elisabeth Julie Gabrielle Coudray, il fait ses études secondaires d'abord au collège des Bons-Enfants de Saint-Quentin puis à Orléans et au lycée Saint-Louis de Paris, où son père avait été muté.
-Il épouse vers 1887, Laure Lapierre qui sera connue comme artiste peintre sous le nom de Laure Brouardel[2],[3].
+Il épouse vers 1887, Laure Lapierre qui sera connue comme artiste peintre sous le nom de Laure Brouardel,.
 En 1858, il est externe à l’hôpital Cochin où il rencontre Étienne-Jules Marey. Premier au concours de l’internat l’année suivante, il obtient le prix de l’école pratique en 1863 et soutient en 1865 sa thèse - très volumineuse- intitulée Tuberculisation des organes génitaux de la femme à la faculté de Paris dont il deviendra plus tard le doyen. Auguste Comte et Claude Bernard exercent alors sur lui une influence qui perdurera dans son œuvre.
 Il dirige à partir de 1873 le service médical de l’hôpital Saint-Antoine puis celui de la Pitié.
-En 1879, titulaire de la chaire de médecine légale, il instaure l’enseignement pratique de la morgue en créant les premiers laboratoires de recherche pour les étudiants. Expert près des tribunaux, il a contribué par  sa pratique à construire cette fonction en l'ancrant dans la recherche objective de la preuve[4].
-À partir de 1884, il dirige le Comité consultatif d'hygiène publique de France qui dépend de l'autorité du Ministre de l'Intérieur: il est une sorte de ministre officieux de la Santé[5]. En 1886 il devient le doyen de l'École de médecine de Paris, signe de l'installation définitive du pasteurisme dans le milieu médical.
+En 1879, titulaire de la chaire de médecine légale, il instaure l’enseignement pratique de la morgue en créant les premiers laboratoires de recherche pour les étudiants. Expert près des tribunaux, il a contribué par  sa pratique à construire cette fonction en l'ancrant dans la recherche objective de la preuve.
+À partir de 1884, il dirige le Comité consultatif d'hygiène publique de France qui dépend de l'autorité du Ministre de l'Intérieur: il est une sorte de ministre officieux de la Santé. En 1886 il devient le doyen de l'École de médecine de Paris, signe de l'installation définitive du pasteurisme dans le milieu médical.
 Il compte parmi les proches de Louis Pasteur dont il a très tôt épousé les thèses. C'est d'ailleurs son assistant, le Dr Grancher, qui pratique la première vaccination anti-rabique. Le rapport à l'Académie de médecine de 1887 concernant la rage est prononcé par Brouardel. Il  prononcera encore l'éloge funèbre de Pasteur en 1895.
 Paul Brouardel est élu membre de l'Académie des sciences le 5 décembre 1892 (division des académiciens libres). Il est élu en 1899 président de l’Association française pour l'avancement des sciences (AFAS).
 </t>
@@ -549,7 +563,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commandeur de l'ordre du Mérite agricole (1900)
  Grand officier de la Légion d'honneur</t>
@@ -580,9 +596,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les premières années de la Troisième République, il a joué un rôle déterminant dans la promotion de l'hygiénisme [6]. Commissaire du gouvernement, il joua un rôle essentiel dans l'adoption  de la loi du 30 novembre 1892 sur l'exercice de la médecine et la répression du charlatanisme ; cette loi[7]  qu'il défendit article par article, et sur laquelle il avait travaillé pendant vingt ans, est d'ailleurs communément appelée « loi Brouardel. » Cette loi ouvre aussi aux médecins, aux dentistes et aux sages-femmes le droit de se constituer en associations ou en syndicats professionnels.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les premières années de la Troisième République, il a joué un rôle déterminant dans la promotion de l'hygiénisme . Commissaire du gouvernement, il joua un rôle essentiel dans l'adoption  de la loi du 30 novembre 1892 sur l'exercice de la médecine et la répression du charlatanisme ; cette loi  qu'il défendit article par article, et sur laquelle il avait travaillé pendant vingt ans, est d'ailleurs communément appelée « loi Brouardel. » Cette loi ouvre aussi aux médecins, aux dentistes et aux sages-femmes le droit de se constituer en associations ou en syndicats professionnels.
 Actif dans la lutte antituberculeuse, il soutint aussi la loi du 15 février 1902 relative à la protection de la santé publique qui est à l’origine du code de la santé publique.
 S'il n'a jamais directement brigué de mandat politique, il a manifesté ses opinions: à la fin du Second Empire, il déclara ses affinités républicaines et prit les armes contre les Communards. Il fut considéré à la fin de sa vie comme une figure éminente de la médecine française. Il mourut de tuberculose.
 Il est enterré au cimetière du Montparnasse. L'avenue du Docteur-Brouardel (7e arrondissement de Paris) existe depuis 1907.
@@ -614,7 +632,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>De la tuberculisation des organes génitaux de la femme, [thèse pour le doctorat en médecine, présentée et soutenue le 14 janvier 1865], A. Parent (Paris), 1865, Texte intégral.
 Lésions du rocher: carie, nécrose, Impr. Moquet (Paris), 1867, Texte intégral.
